--- a/vamos.xlsx
+++ b/vamos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nr. nota</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Sem frete</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,28 +191,31 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -523,10 +529,10 @@
     <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -541,14 +547,14 @@
     <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="26.719285714285714" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +564,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -628,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>149966</v>
       </c>
@@ -670,7 +676,9 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
